--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ACF9C6-CD0E-4649-B0AC-26C76F66FCC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF58E23-F4CA-4BFF-9782-4D30407C650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="36">
   <si>
     <t>lang_code</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>000</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,7 +198,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,19 +512,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.44140625" style="1"/>
-    <col min="5" max="5" width="8.5546875" style="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,1143 +544,2285 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF58E23-F4CA-4BFF-9782-4D30407C650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="35">
   <si>
     <t>lang_code</t>
   </si>
@@ -45,7 +47,7 @@
     <t>eng</t>
   </si>
   <si>
-    <t>001</t>
+    <t>000</t>
   </si>
   <si>
     <t>POI</t>
@@ -73,6 +75,9 @@
   </si>
   <si>
     <t>CRN</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
   <si>
     <t>002</t>
@@ -126,43 +131,379 @@
     <t>016</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>hin</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,9 +526,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -199,17 +782,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -291,26 +918,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -343,23 +953,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,33 +1094,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A135" sqref="$A135:$XFD135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54545454545454" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.5454545454545" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="12.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="8.81818181818182" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,12 +1132,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -561,12 +1149,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -578,12 +1166,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -595,12 +1183,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -612,12 +1200,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -629,12 +1217,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -646,12 +1234,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -663,12 +1251,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -680,12 +1268,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -697,12 +1285,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -714,12 +1302,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -731,12 +1319,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -748,12 +1336,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -765,12 +1353,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -782,12 +1370,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -799,12 +1387,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -816,12 +1404,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -833,12 +1421,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -850,12 +1438,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -867,12 +1455,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -884,12 +1472,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -901,12 +1489,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -918,12 +1506,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -935,12 +1523,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -952,12 +1540,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -969,12 +1557,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -986,12 +1574,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1003,12 +1591,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1020,12 +1608,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1037,12 +1625,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1054,12 +1642,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1071,12 +1659,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1088,29 +1676,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1122,12 +1710,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1139,12 +1727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1156,29 +1744,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1190,12 +1778,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1207,12 +1795,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1224,29 +1812,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1258,12 +1846,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1275,29 +1863,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1309,12 +1897,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1326,12 +1914,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1343,12 +1931,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1360,29 +1948,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1394,12 +1982,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -1411,12 +1999,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -1428,29 +2016,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1462,12 +2050,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1479,12 +2067,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -1496,29 +2084,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1530,12 +2118,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -1547,29 +2135,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -1581,12 +2169,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -1598,12 +2186,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -1615,12 +2203,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1632,12 +2220,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -1649,12 +2237,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -1666,12 +2254,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -1683,12 +2271,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>34</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1700,12 +2288,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>34</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -1717,12 +2305,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>34</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -1734,12 +2322,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -1751,12 +2339,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1768,12 +2356,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -1785,12 +2373,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -1802,12 +2390,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -1819,12 +2407,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>34</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1836,12 +2424,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -1853,12 +2441,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -1870,12 +2458,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>34</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -1887,12 +2475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>34</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -1904,12 +2492,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>34</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -1921,12 +2509,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -1938,12 +2526,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -1955,12 +2543,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>34</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -1972,12 +2560,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>34</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -1989,12 +2577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -2006,12 +2594,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>34</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -2023,12 +2611,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2040,12 +2628,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -2057,12 +2645,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>34</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2074,12 +2662,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>34</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -2091,12 +2679,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -2108,12 +2696,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -2125,12 +2713,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>34</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2142,12 +2730,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>34</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -2159,12 +2747,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>34</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -2176,12 +2764,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>34</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -2193,12 +2781,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>34</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -2210,12 +2798,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -2227,29 +2815,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>34</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>34</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -2261,12 +2849,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>34</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -2278,12 +2866,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>34</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -2295,29 +2883,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>34</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
         <v>26</v>
       </c>
-      <c r="C105" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" t="s">
-        <v>25</v>
-      </c>
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>34</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -2329,12 +2917,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>34</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -2346,12 +2934,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -2363,29 +2951,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>34</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>34</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -2397,12 +2985,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>34</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -2414,29 +3002,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>34</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>34</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -2448,12 +3036,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>34</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -2465,12 +3053,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>34</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -2482,12 +3070,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -2499,29 +3087,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>34</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -2533,12 +3121,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>34</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -2550,12 +3138,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>34</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -2567,29 +3155,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>34</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>34</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -2601,12 +3189,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>34</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -2618,12 +3206,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>34</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -2635,29 +3223,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>34</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>34</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -2669,12 +3257,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>34</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -2686,29 +3274,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>34</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>34</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -2720,12 +3308,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>34</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -2737,12 +3325,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>34</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -2754,12 +3342,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>34</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -2771,12 +3359,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>34</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
         <v>10</v>
@@ -2788,12 +3376,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>34</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -2805,12 +3393,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>34</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
@@ -2821,12 +3409,10 @@
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H135" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="34">
   <si>
     <t>lang_code</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>016</t>
-  </si>
-  <si>
-    <t>hin</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A135" sqref="$A135:$XFD135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A69" sqref="$A69:$XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54545454545454" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -2271,1145 +2268,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C112" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C113" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C125" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>34</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C128" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>34</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C133" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>34</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C135" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9084"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="data-1713953500949" sheetId="1" r:id="rId1"/>
+    <sheet name="applicant_valid_document" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">applicant_valid_document!$A$1:$K$371</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="24">
   <si>
     <t>apptyp_code</t>
   </si>
@@ -44,19 +47,25 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>POE</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>POA</t>
   </si>
   <si>
     <t>RNC</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>COB</t>
   </si>
   <si>
     <t>POR</t>
@@ -65,16 +74,10 @@
     <t>CRN</t>
   </si>
   <si>
-    <t>POB</t>
+    <t>POE</t>
   </si>
   <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>CIN</t>
+    <t>COE</t>
   </si>
   <si>
     <t>POP</t>
@@ -83,16 +86,22 @@
     <t>RPH</t>
   </si>
   <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
     <t>POC</t>
   </si>
   <si>
     <t>SCS</t>
   </si>
   <si>
-    <t>hin</t>
+    <t>spa</t>
   </si>
   <si>
-    <t>ABC</t>
+    <t>fra</t>
   </si>
 </sst>
 </file>
@@ -708,8 +717,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,13 +1260,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1270,9 +1285,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1286,10 +1301,12 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1303,16 +1320,18 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1320,16 +1339,18 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1337,16 +1358,18 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1354,16 +1377,18 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1371,16 +1396,18 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1388,16 +1415,18 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1405,16 +1434,18 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1422,16 +1453,18 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1439,16 +1472,18 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1456,16 +1491,18 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1473,16 +1510,18 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1490,16 +1529,18 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1507,16 +1548,18 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1524,16 +1567,18 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1541,16 +1586,18 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1558,16 +1605,18 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1575,16 +1624,18 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1592,16 +1643,18 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1609,16 +1662,18 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1626,16 +1681,18 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1643,16 +1700,18 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1660,16 +1719,18 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1677,16 +1738,18 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1694,16 +1757,18 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1711,16 +1776,18 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1728,16 +1795,18 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1745,16 +1814,18 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
         <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1762,16 +1833,18 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1779,16 +1852,18 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1796,16 +1871,18 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1813,16 +1890,18 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1830,16 +1909,18 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1847,16 +1928,18 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1864,16 +1947,18 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1881,16 +1966,18 @@
       <c r="E37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1898,16 +1985,18 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1915,16 +2004,18 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1932,16 +2023,18 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1949,16 +2042,18 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1966,16 +2061,18 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1983,16 +2080,18 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -2000,16 +2099,18 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -2017,16 +2118,18 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -2034,16 +2137,18 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -2051,16 +2156,18 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -2068,16 +2175,18 @@
       <c r="E48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -2085,10 +2194,12 @@
       <c r="E49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2102,10 +2213,12 @@
       <c r="E50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2119,101 +2232,113 @@
       <c r="E51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C57" t="s">
         <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -2221,16 +2346,18 @@
       <c r="E57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2238,16 +2365,18 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2255,16 +2384,18 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2272,10 +2403,12 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
-        <v>12</v>
+      <c r="F60"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2284,49 +2417,55 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -2335,559 +2474,625 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
         <v>7</v>
       </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
         <v>7</v>
       </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
         <v>12</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
         <v>7</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
         <v>10</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
         <v>12</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C96" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>14</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
         <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>16</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>15</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>15</v>
-      </c>
-      <c r="B83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>16</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>10</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>11</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -2896,168 +3101,188 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
         <v>3</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
         <v>14</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>6</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>10</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>49</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>49</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>49</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>49</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3066,100 +3291,112 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>9</v>
       </c>
-      <c r="D109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>50</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -3168,15 +3405,17 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -3185,117 +3424,131 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
         <v>14</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C120" t="s">
         <v>15</v>
       </c>
-      <c r="D115" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>52</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>52</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
         <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>53</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>53</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>53</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>53</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3304,117 +3557,131 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
         <v>14</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
         <v>15</v>
       </c>
-      <c r="D122" t="s">
-        <v>20</v>
-      </c>
-      <c r="E122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>54</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <v>54</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" t="s">
-        <v>20</v>
-      </c>
-      <c r="E124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <v>55</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
-        <v>55</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
-        <v>55</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -3423,15 +3690,17 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
@@ -3440,32 +3709,36 @@
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3474,66 +3747,74 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
         <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
-        <v>57</v>
-      </c>
-      <c r="B133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <v>57</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <v>57</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -3542,151 +3823,169 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
         <v>20</v>
       </c>
-      <c r="E135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <v>57</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
         <v>20</v>
       </c>
-      <c r="E136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
-        <v>58</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
         <v>14</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>20</v>
-      </c>
-      <c r="E137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <v>58</v>
-      </c>
-      <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <v>58</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" t="s">
-        <v>20</v>
-      </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
-        <v>58</v>
-      </c>
-      <c r="B140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
-        <v>59</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>59</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>59</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
-        <v>59</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -3695,66 +3994,74 @@
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D145" t="s">
-        <v>20</v>
-      </c>
-      <c r="E145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
-        <v>60</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>20</v>
-      </c>
-      <c r="E146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147">
-        <v>60</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -3763,100 +4070,112 @@
         <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
         <v>8</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>9</v>
       </c>
-      <c r="D149" t="s">
-        <v>20</v>
-      </c>
-      <c r="E149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150">
-        <v>61</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
         <v>13</v>
-      </c>
-      <c r="D152" t="s">
-        <v>20</v>
-      </c>
-      <c r="E152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153">
-        <v>61</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154">
-        <v>61</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -3865,15 +4184,17 @@
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
@@ -3882,100 +4203,112 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
         <v>8</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
         <v>9</v>
       </c>
-      <c r="D156" t="s">
-        <v>20</v>
-      </c>
-      <c r="E156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
-        <v>62</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>49</v>
+      </c>
+      <c r="B160" t="s">
         <v>5</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>6</v>
       </c>
-      <c r="D158" t="s">
-        <v>20</v>
-      </c>
-      <c r="E158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159">
-        <v>63</v>
-      </c>
-      <c r="B159" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160">
-        <v>63</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>13</v>
-      </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -3984,32 +4317,36 @@
         <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -4018,77 +4355,3555 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>21</v>
+      <c r="F166"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>51</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
       <c r="E167" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>13</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>16</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>17</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>16</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>15</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>99</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>78</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>76</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>56</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>54</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>34</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>43</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>23</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>21</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>12</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>21</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>23</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>21</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>34</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>43</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>34</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>78</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>65</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>43</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>32</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>21</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>34</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>67</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>66</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>78</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>77</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>89</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>88</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>76</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>55</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>56</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>44</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>44</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>23</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>23</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>44</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>55</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>22</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>66</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>55</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>11</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>11</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>21</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>99</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>77</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>88</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>48</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>46</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E224" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>14</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>16</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>25</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>23</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>38</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>34</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>31</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>11</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E232" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>2</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>33</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>55</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>63</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>47</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>53</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E238" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>56</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E239" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>75</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>43</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>56</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E242" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>87</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>43</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E244" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>56</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E245" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>76</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E246" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>78</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E248" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>65</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>43</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>12</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>34</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>56</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>87</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>65</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>43</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>21</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>34</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>56</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>78</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>87</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E261" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>23</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>24</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>25</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>26</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>27</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E266" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>28</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>29</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>30</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>31</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E270" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>32</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>33</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>34</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>35</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E274" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>36</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>37</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E276" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>38</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>39</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>40</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>41</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>42</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>43</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>44</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>46</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E285" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>47</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E286" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>48</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>49</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E288" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>50</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>51</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>52</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E291" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>53</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E292" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>54</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>55</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E294" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>56</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>57</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>58</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>59</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>60</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>61</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>62</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E301" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>63</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>64</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E303" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>65</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E304" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>66</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E305" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>67</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E306" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>68</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E307" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>69</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E308" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>70</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E309" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>71</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E310" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>72</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E311" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>73</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E312" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>74</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>75</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E314" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>76</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E315" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>77</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E316" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>78</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E317" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>79</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E318" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>80</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E319" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>81</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E320" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>82</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E321" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>83</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E322" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>84</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E323" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>85</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E324" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>86</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E325" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>87</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E326" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>88</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E327" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>89</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E328" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>90</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E329" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>91</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E330" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>92</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E331" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>93</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E332" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>94</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E333" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>95</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E334" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>96</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E335" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>97</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E336" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>98</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E337" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>99</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E338" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>100</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E339" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>101</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E340" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>102</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E341" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>103</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E342" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>104</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>105</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E344" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>106</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E345" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>107</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E346" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>108</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E347" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>109</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E348" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>110</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E349" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>111</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E350" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>112</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E351" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>113</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E352" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>114</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>115</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E354" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>116</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>117</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E356" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>118</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E357" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>119</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E358" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>120</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E359" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>121</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E360" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>122</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E361" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>123</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E362" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>124</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E363" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>125</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E364" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>126</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E365" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>127</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E366" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>128</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E367" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>129</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E368" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>130</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E369" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>131</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E370" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>132</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E371" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6061B-33F5-4B95-A1BF-A2E3C16353BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959E58B-FE53-4BAE-962B-117988F9C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>lang_code</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>DOC018</t>
+  </si>
+  <si>
+    <t>DOC002</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -518,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959E58B-FE53-4BAE-962B-117988F9C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA79900-233F-46B7-9F08-262DB8DA9791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>DOC004</t>
   </si>
   <si>
-    <t>D0C005</t>
-  </si>
-  <si>
     <t>DOC006</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>DOC002</t>
+  </si>
+  <si>
+    <t>DOC005</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -589,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -620,10 +620,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -637,10 +637,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -654,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -671,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -688,10 +688,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -722,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -756,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -773,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
@@ -790,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA79900-233F-46B7-9F08-262DB8DA9791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C089151C-884D-4B13-B8B4-002B40F317FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="34">
   <si>
     <t>lang_code</t>
   </si>
@@ -67,9 +67,6 @@
     <t>DOC007</t>
   </si>
   <si>
-    <t>POB</t>
-  </si>
-  <si>
     <t>DOC008</t>
   </si>
   <si>
@@ -82,33 +79,6 @@
     <t>DOC010</t>
   </si>
   <si>
-    <t>POA</t>
-  </si>
-  <si>
-    <t>DOC011</t>
-  </si>
-  <si>
-    <t>DOC012</t>
-  </si>
-  <si>
-    <t>DOC013</t>
-  </si>
-  <si>
-    <t>DOC014</t>
-  </si>
-  <si>
-    <t>POC</t>
-  </si>
-  <si>
-    <t>DOC015</t>
-  </si>
-  <si>
-    <t>DOC016</t>
-  </si>
-  <si>
-    <t>DOC017</t>
-  </si>
-  <si>
     <t>POM</t>
   </si>
   <si>
@@ -119,6 +89,42 @@
   </si>
   <si>
     <t>DOC005</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
   </si>
 </sst>
 </file>
@@ -461,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -498,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -515,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -532,13 +538,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -549,13 +555,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -566,13 +572,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -583,13 +589,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -600,13 +606,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -617,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -634,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -651,13 +657,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -668,10 +674,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
@@ -685,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -702,13 +708,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -719,13 +725,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -736,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -753,13 +759,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -770,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
@@ -787,15 +793,865 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
